--- a/Documents/Finance/Financial Summary Report/Business plan - for financial summary.xlsx
+++ b/Documents/Finance/Financial Summary Report/Business plan - for financial summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16160" windowHeight="17520" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16160" windowHeight="17520"/>
   </bookViews>
   <sheets>
     <sheet name="Buisness Projection" sheetId="1" r:id="rId1"/>
@@ -811,6 +811,8 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="14" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -826,8 +828,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="38">
     <cellStyle name="40% - Accent4" xfId="2" builtinId="43"/>
@@ -1171,7 +1171,7 @@
   </sheetPr>
   <dimension ref="A1:HA57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="K2" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L2" workbookViewId="0">
       <selection activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
@@ -1199,57 +1199,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:209" ht="59.25" customHeight="1">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="116"/>
-      <c r="T1" s="116"/>
-      <c r="U1" s="116"/>
-      <c r="V1" s="116"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
+      <c r="V1" s="118"/>
     </row>
     <row r="2" spans="1:209" ht="18">
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="9"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="113" t="s">
+      <c r="J2" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="117" t="s">
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="U2" s="117"/>
+      <c r="U2" s="119"/>
       <c r="V2" s="66"/>
       <c r="W2" s="66"/>
       <c r="X2" s="66"/>
@@ -4365,11 +4365,11 @@
     </row>
     <row r="38" spans="1:109">
       <c r="A38" s="3"/>
-      <c r="J38" s="114" t="s">
+      <c r="J38" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="K38" s="114"/>
-      <c r="L38" s="115"/>
+      <c r="K38" s="116"/>
+      <c r="L38" s="117"/>
       <c r="M38" s="92"/>
       <c r="N38" s="94"/>
       <c r="O38" s="17" t="s">
@@ -4530,7 +4530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -5387,10 +5387,10 @@
       <c r="G22" s="77">
         <v>87.5</v>
       </c>
-      <c r="H22" s="118">
+      <c r="H22" s="113">
         <v>0</v>
       </c>
-      <c r="I22" s="119"/>
+      <c r="I22" s="114"/>
       <c r="J22" s="77">
         <v>137.5</v>
       </c>
@@ -5430,7 +5430,7 @@
       <c r="H23" s="104">
         <v>187.5</v>
       </c>
-      <c r="I23" s="119"/>
+      <c r="I23" s="114"/>
       <c r="J23" s="104">
         <v>125</v>
       </c>

--- a/Documents/Finance/Financial Summary Report/Business plan - for financial summary.xlsx
+++ b/Documents/Finance/Financial Summary Report/Business plan - for financial summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16160" windowHeight="17520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16160" windowHeight="17520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Buisness Projection" sheetId="1" r:id="rId1"/>
@@ -1171,8 +1171,8 @@
   </sheetPr>
   <dimension ref="A1:HA57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L2" workbookViewId="0">
-      <selection activeCell="T39" sqref="T39"/>
+    <sheetView showGridLines="0" topLeftCell="I2" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="U24" s="106">
         <f>Timesheets!M22</f>
-        <v>1206.25</v>
+        <v>1306.25</v>
       </c>
       <c r="W24" s="6"/>
     </row>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="U25" s="106">
         <f>Timesheets!M23</f>
-        <v>1587.5</v>
+        <v>1687.5</v>
       </c>
       <c r="W25" s="9"/>
     </row>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="U26" s="106">
         <f>Timesheets!M24</f>
-        <v>162.5</v>
+        <v>350</v>
       </c>
       <c r="W26" s="100" t="s">
         <v>54</v>
@@ -4234,7 +4234,7 @@
       </c>
       <c r="U33" s="89">
         <f t="shared" si="1"/>
-        <v>22608.75</v>
+        <v>22996.25</v>
       </c>
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
@@ -4530,8 +4530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5390,7 +5390,9 @@
       <c r="H22" s="113">
         <v>0</v>
       </c>
-      <c r="I22" s="114"/>
+      <c r="I22" s="114">
+        <v>100</v>
+      </c>
       <c r="J22" s="77">
         <v>137.5</v>
       </c>
@@ -5402,7 +5404,7 @@
       </c>
       <c r="M22" s="13">
         <f t="shared" si="0"/>
-        <v>1206.25</v>
+        <v>1306.25</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -5430,7 +5432,9 @@
       <c r="H23" s="104">
         <v>187.5</v>
       </c>
-      <c r="I23" s="114"/>
+      <c r="I23" s="114">
+        <v>100</v>
+      </c>
       <c r="J23" s="104">
         <v>125</v>
       </c>
@@ -5442,7 +5446,7 @@
       </c>
       <c r="M23" s="13">
         <f t="shared" si="0"/>
-        <v>1587.5</v>
+        <v>1687.5</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -5456,9 +5460,13 @@
       <c r="D24" s="104"/>
       <c r="E24" s="104"/>
       <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
+      <c r="G24" s="104">
+        <v>75</v>
+      </c>
       <c r="H24" s="104"/>
-      <c r="I24" s="104"/>
+      <c r="I24" s="104">
+        <v>112.5</v>
+      </c>
       <c r="J24" s="104"/>
       <c r="K24" s="104"/>
       <c r="L24" s="104">
@@ -5466,7 +5474,7 @@
       </c>
       <c r="M24" s="13">
         <f t="shared" si="0"/>
-        <v>162.5</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -5583,7 +5591,7 @@
       </c>
       <c r="P29" s="12">
         <f>SUM(M20:M29)</f>
-        <v>5612.5</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -5608,7 +5616,7 @@
       </c>
       <c r="G31" s="12">
         <f t="shared" si="1"/>
-        <v>1525</v>
+        <v>1600</v>
       </c>
       <c r="H31" s="12">
         <f t="shared" si="1"/>
@@ -5616,7 +5624,7 @@
       </c>
       <c r="I31" s="12">
         <f t="shared" si="1"/>
-        <v>1775</v>
+        <v>2087.5</v>
       </c>
       <c r="J31" s="12">
         <f t="shared" si="1"/>
@@ -5632,7 +5640,7 @@
       </c>
       <c r="M31" s="107">
         <f t="shared" si="1"/>
-        <v>22608.75</v>
+        <v>22996.25</v>
       </c>
     </row>
     <row r="37" spans="3:13">

--- a/Documents/Finance/Financial Summary Report/Business plan - for financial summary.xlsx
+++ b/Documents/Finance/Financial Summary Report/Business plan - for financial summary.xlsx
@@ -331,7 +331,7 @@
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00;[Red]&quot;£&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;£&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,12 +427,6 @@
       <color indexed="81"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="15">
@@ -811,7 +805,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="14" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -828,6 +821,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="38">
     <cellStyle name="40% - Accent4" xfId="2" builtinId="43"/>
@@ -1171,8 +1165,8 @@
   </sheetPr>
   <dimension ref="A1:HA57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="I2" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView showGridLines="0" topLeftCell="H3" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1199,57 +1193,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:209" ht="59.25" customHeight="1">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="118"/>
-      <c r="T1" s="118"/>
-      <c r="U1" s="118"/>
-      <c r="V1" s="118"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
     </row>
     <row r="2" spans="1:209" ht="18">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
       <c r="G2" s="9"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="115" t="s">
+      <c r="J2" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="119" t="s">
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="U2" s="119"/>
+      <c r="U2" s="118"/>
       <c r="V2" s="66"/>
       <c r="W2" s="66"/>
       <c r="X2" s="66"/>
@@ -3740,7 +3734,7 @@
       </c>
       <c r="U26" s="106">
         <f>Timesheets!M24</f>
-        <v>350</v>
+        <v>1075</v>
       </c>
       <c r="W26" s="100" t="s">
         <v>54</v>
@@ -4229,12 +4223,12 @@
         <v>3147.5</v>
       </c>
       <c r="T33" s="89">
-        <f t="shared" si="1"/>
+        <f>SUM(T5:T31)</f>
         <v>29800</v>
       </c>
       <c r="U33" s="89">
         <f t="shared" si="1"/>
-        <v>22996.25</v>
+        <v>23721.25</v>
       </c>
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
@@ -4365,11 +4359,11 @@
     </row>
     <row r="38" spans="1:109">
       <c r="A38" s="3"/>
-      <c r="J38" s="116" t="s">
+      <c r="J38" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="K38" s="116"/>
-      <c r="L38" s="117"/>
+      <c r="K38" s="115"/>
+      <c r="L38" s="116"/>
       <c r="M38" s="92"/>
       <c r="N38" s="94"/>
       <c r="O38" s="17" t="s">
@@ -4437,6 +4431,7 @@
       <c r="P42" s="86" t="s">
         <v>31</v>
       </c>
+      <c r="T42" s="12"/>
     </row>
     <row r="43" spans="1:109">
       <c r="J43" s="98" t="s">
@@ -4531,7 +4526,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5372,34 +5367,34 @@
       <c r="B22" s="78">
         <v>3</v>
       </c>
-      <c r="C22" s="104">
-        <v>187.5</v>
-      </c>
-      <c r="D22" s="104">
+      <c r="C22" s="113">
+        <v>187.5</v>
+      </c>
+      <c r="D22" s="113">
         <v>212.5</v>
       </c>
-      <c r="E22" s="104">
+      <c r="E22" s="113">
         <v>62.5</v>
       </c>
-      <c r="F22" s="104">
+      <c r="F22" s="113">
         <v>193.75</v>
       </c>
-      <c r="G22" s="77">
+      <c r="G22" s="113">
         <v>87.5</v>
       </c>
       <c r="H22" s="113">
         <v>0</v>
       </c>
-      <c r="I22" s="114">
+      <c r="I22" s="113">
         <v>100</v>
       </c>
-      <c r="J22" s="77">
+      <c r="J22" s="113">
         <v>137.5</v>
       </c>
-      <c r="K22" s="104">
-        <v>187.5</v>
-      </c>
-      <c r="L22" s="104">
+      <c r="K22" s="113">
+        <v>187.5</v>
+      </c>
+      <c r="L22" s="113">
         <v>137.5</v>
       </c>
       <c r="M22" s="13">
@@ -5414,34 +5409,34 @@
       <c r="B23" s="76">
         <v>4</v>
       </c>
-      <c r="C23" s="104">
+      <c r="C23" s="113">
         <v>137.5</v>
       </c>
-      <c r="D23" s="104">
+      <c r="D23" s="113">
         <v>312.5</v>
       </c>
-      <c r="E23" s="104">
+      <c r="E23" s="113">
         <v>162.5</v>
       </c>
-      <c r="F23" s="104">
+      <c r="F23" s="113">
         <v>200</v>
       </c>
-      <c r="G23" s="104">
+      <c r="G23" s="113">
         <v>162.5</v>
       </c>
-      <c r="H23" s="104">
-        <v>187.5</v>
-      </c>
-      <c r="I23" s="114">
+      <c r="H23" s="113">
+        <v>187.5</v>
+      </c>
+      <c r="I23" s="113">
         <v>100</v>
       </c>
-      <c r="J23" s="104">
+      <c r="J23" s="113">
         <v>125</v>
       </c>
-      <c r="K23" s="104">
+      <c r="K23" s="113">
         <v>237.5</v>
       </c>
-      <c r="L23" s="104">
+      <c r="L23" s="113">
         <v>62.5</v>
       </c>
       <c r="M23" s="13">
@@ -5456,25 +5451,33 @@
       <c r="B24" s="83">
         <v>5</v>
       </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104">
-        <v>75</v>
-      </c>
-      <c r="H24" s="104"/>
-      <c r="I24" s="104">
+      <c r="C24" s="113">
+        <v>75</v>
+      </c>
+      <c r="D24" s="113">
+        <v>312.5</v>
+      </c>
+      <c r="E24" s="113">
+        <v>312.5</v>
+      </c>
+      <c r="F24" s="119"/>
+      <c r="G24" s="113">
+        <v>75</v>
+      </c>
+      <c r="H24" s="113">
+        <v>25</v>
+      </c>
+      <c r="I24" s="113">
         <v>112.5</v>
       </c>
-      <c r="J24" s="104"/>
-      <c r="K24" s="104"/>
-      <c r="L24" s="104">
+      <c r="J24" s="119"/>
+      <c r="K24" s="119"/>
+      <c r="L24" s="113">
         <v>162.5</v>
       </c>
       <c r="M24" s="13">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -5591,7 +5594,7 @@
       </c>
       <c r="P29" s="12">
         <f>SUM(M20:M29)</f>
-        <v>6000</v>
+        <v>6725</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -5600,15 +5603,15 @@
       </c>
       <c r="C31" s="12">
         <f>SUM(C3:C29)</f>
-        <v>2325</v>
+        <v>2400</v>
       </c>
       <c r="D31" s="12">
         <f>SUM(D3:D29)</f>
-        <v>2837.5</v>
+        <v>3150</v>
       </c>
       <c r="E31" s="12">
         <f>SUM(E3:E29)</f>
-        <v>1937.5</v>
+        <v>2250</v>
       </c>
       <c r="F31" s="12">
         <f t="shared" ref="F31:M31" si="1">SUM(F3:F29)</f>
@@ -5620,7 +5623,7 @@
       </c>
       <c r="H31" s="12">
         <f t="shared" si="1"/>
-        <v>1725</v>
+        <v>1750</v>
       </c>
       <c r="I31" s="12">
         <f t="shared" si="1"/>
@@ -5640,7 +5643,7 @@
       </c>
       <c r="M31" s="107">
         <f t="shared" si="1"/>
-        <v>22996.25</v>
+        <v>23721.25</v>
       </c>
     </row>
     <row r="37" spans="3:13">

--- a/Documents/Finance/Financial Summary Report/Business plan - for financial summary.xlsx
+++ b/Documents/Finance/Financial Summary Report/Business plan - for financial summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16160" windowHeight="17520" activeTab="1"/>
+    <workbookView xWindow="13380" yWindow="60" windowWidth="16160" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Buisness Projection" sheetId="1" r:id="rId1"/>
@@ -429,7 +429,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,6 +510,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,7 +621,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -801,7 +807,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -821,7 +826,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="38">
     <cellStyle name="40% - Accent4" xfId="2" builtinId="43"/>
@@ -1165,8 +1170,8 @@
   </sheetPr>
   <dimension ref="A1:HA57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H3" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L2" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1193,57 +1198,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:209" ht="59.25" customHeight="1">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
-      <c r="S1" s="117"/>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
+      <c r="U1" s="116"/>
+      <c r="V1" s="116"/>
     </row>
     <row r="2" spans="1:209" ht="18">
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
       <c r="G2" s="9"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="114" t="s">
+      <c r="J2" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="118" t="s">
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="U2" s="118"/>
+      <c r="U2" s="117"/>
       <c r="V2" s="66"/>
       <c r="W2" s="66"/>
       <c r="X2" s="66"/>
@@ -2648,7 +2653,7 @@
         <f t="shared" si="0"/>
         <v>1141</v>
       </c>
-      <c r="U13" s="109">
+      <c r="U13" s="118">
         <f>Timesheets!M11</f>
         <v>1637.5</v>
       </c>
@@ -2713,7 +2718,7 @@
         <f t="shared" si="0"/>
         <v>1232.75</v>
       </c>
-      <c r="U14" s="109">
+      <c r="U14" s="118">
         <f>Timesheets!M12</f>
         <v>1300</v>
       </c>
@@ -2744,7 +2749,7 @@
       <c r="R15" s="77"/>
       <c r="S15" s="77"/>
       <c r="T15" s="106"/>
-      <c r="U15" s="109"/>
+      <c r="U15" s="118"/>
       <c r="V15" s="9"/>
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
@@ -2987,7 +2992,7 @@
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
-      <c r="U16" s="109">
+      <c r="U16" s="118">
         <f>Timesheets!M14</f>
         <v>993.5</v>
       </c>
@@ -3045,7 +3050,7 @@
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
-      <c r="U17" s="109">
+      <c r="U17" s="118">
         <f>Timesheets!M15</f>
         <v>818.75</v>
       </c>
@@ -3103,7 +3108,7 @@
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
-      <c r="U18" s="109">
+      <c r="U18" s="118">
         <f>Timesheets!M16</f>
         <v>1012.5</v>
       </c>
@@ -3161,7 +3166,7 @@
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
-      <c r="U19" s="109">
+      <c r="U19" s="118">
         <f>Timesheets!M17</f>
         <v>887.5</v>
       </c>
@@ -3219,7 +3224,7 @@
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
-      <c r="U20" s="109">
+      <c r="U20" s="118">
         <f>Timesheets!M18</f>
         <v>1087.5</v>
       </c>
@@ -3734,7 +3739,7 @@
       </c>
       <c r="U26" s="106">
         <f>Timesheets!M24</f>
-        <v>1075</v>
+        <v>1218.75</v>
       </c>
       <c r="W26" s="100" t="s">
         <v>54</v>
@@ -4228,7 +4233,7 @@
       </c>
       <c r="U33" s="89">
         <f t="shared" si="1"/>
-        <v>23721.25</v>
+        <v>23865</v>
       </c>
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
@@ -4356,14 +4361,15 @@
     </row>
     <row r="37" spans="1:109">
       <c r="A37" s="3"/>
+      <c r="U37" s="109"/>
     </row>
     <row r="38" spans="1:109">
       <c r="A38" s="3"/>
-      <c r="J38" s="115" t="s">
+      <c r="J38" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="K38" s="115"/>
-      <c r="L38" s="116"/>
+      <c r="K38" s="114"/>
+      <c r="L38" s="115"/>
       <c r="M38" s="92"/>
       <c r="N38" s="94"/>
       <c r="O38" s="17" t="s">
@@ -4387,6 +4393,10 @@
         <v>61</v>
       </c>
       <c r="P39" s="86"/>
+      <c r="U39" s="109">
+        <f>U33+SUM(T27:T31)</f>
+        <v>31221.5</v>
+      </c>
     </row>
     <row r="40" spans="1:109">
       <c r="J40" s="97" t="s">
@@ -4401,6 +4411,10 @@
         <v>600</v>
       </c>
       <c r="P40" s="86"/>
+      <c r="U40" s="15">
+        <f>O40+F33</f>
+        <v>20017.5</v>
+      </c>
     </row>
     <row r="41" spans="1:109">
       <c r="J41" s="91" t="s">
@@ -4416,6 +4430,10 @@
       <c r="P41" s="86" t="s">
         <v>33</v>
       </c>
+      <c r="U41" s="15">
+        <f>U39+U40</f>
+        <v>51239</v>
+      </c>
     </row>
     <row r="42" spans="1:109">
       <c r="J42" s="91" t="s">
@@ -4426,7 +4444,7 @@
       <c r="M42" s="93"/>
       <c r="N42" s="99"/>
       <c r="O42" s="90">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="P42" s="86" t="s">
         <v>31</v>
@@ -4443,7 +4461,7 @@
       <c r="N43" s="99"/>
       <c r="O43" s="90">
         <f>O42*0.25</f>
-        <v>1750</v>
+        <v>1375</v>
       </c>
       <c r="P43" s="86"/>
     </row>
@@ -4457,7 +4475,7 @@
       <c r="N44" s="99"/>
       <c r="O44" s="90">
         <f>O42*0.5</f>
-        <v>3500</v>
+        <v>2750</v>
       </c>
       <c r="P44" s="86"/>
       <c r="R44" s="1" t="s">
@@ -4474,10 +4492,10 @@
       <c r="N45" s="99"/>
       <c r="O45" s="90">
         <f>O42*0.25</f>
-        <v>1750</v>
+        <v>1375</v>
       </c>
       <c r="P45" s="86"/>
-      <c r="R45" s="111">
+      <c r="R45" s="110">
         <f>K35+O40+F33</f>
         <v>66892.5</v>
       </c>
@@ -4491,7 +4509,7 @@
       <c r="J47" t="s">
         <v>29</v>
       </c>
-      <c r="R47" s="111">
+      <c r="R47" s="110">
         <f>S34+O40+F33</f>
         <v>49817.5</v>
       </c>
@@ -4523,10 +4541,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5367,34 +5385,34 @@
       <c r="B22" s="78">
         <v>3</v>
       </c>
-      <c r="C22" s="113">
-        <v>187.5</v>
-      </c>
-      <c r="D22" s="113">
+      <c r="C22" s="112">
+        <v>187.5</v>
+      </c>
+      <c r="D22" s="112">
         <v>212.5</v>
       </c>
-      <c r="E22" s="113">
+      <c r="E22" s="112">
         <v>62.5</v>
       </c>
-      <c r="F22" s="113">
+      <c r="F22" s="112">
         <v>193.75</v>
       </c>
-      <c r="G22" s="113">
+      <c r="G22" s="112">
         <v>87.5</v>
       </c>
-      <c r="H22" s="113">
+      <c r="H22" s="112">
         <v>0</v>
       </c>
-      <c r="I22" s="113">
+      <c r="I22" s="112">
         <v>100</v>
       </c>
-      <c r="J22" s="113">
+      <c r="J22" s="112">
         <v>137.5</v>
       </c>
-      <c r="K22" s="113">
-        <v>187.5</v>
-      </c>
-      <c r="L22" s="113">
+      <c r="K22" s="112">
+        <v>187.5</v>
+      </c>
+      <c r="L22" s="112">
         <v>137.5</v>
       </c>
       <c r="M22" s="13">
@@ -5409,34 +5427,34 @@
       <c r="B23" s="76">
         <v>4</v>
       </c>
-      <c r="C23" s="113">
+      <c r="C23" s="112">
         <v>137.5</v>
       </c>
-      <c r="D23" s="113">
+      <c r="D23" s="112">
         <v>312.5</v>
       </c>
-      <c r="E23" s="113">
+      <c r="E23" s="112">
         <v>162.5</v>
       </c>
-      <c r="F23" s="113">
+      <c r="F23" s="112">
         <v>200</v>
       </c>
-      <c r="G23" s="113">
+      <c r="G23" s="112">
         <v>162.5</v>
       </c>
-      <c r="H23" s="113">
-        <v>187.5</v>
-      </c>
-      <c r="I23" s="113">
+      <c r="H23" s="112">
+        <v>187.5</v>
+      </c>
+      <c r="I23" s="112">
         <v>100</v>
       </c>
-      <c r="J23" s="113">
+      <c r="J23" s="112">
         <v>125</v>
       </c>
-      <c r="K23" s="113">
+      <c r="K23" s="112">
         <v>237.5</v>
       </c>
-      <c r="L23" s="113">
+      <c r="L23" s="112">
         <v>62.5</v>
       </c>
       <c r="M23" s="13">
@@ -5451,33 +5469,40 @@
       <c r="B24" s="83">
         <v>5</v>
       </c>
-      <c r="C24" s="113">
-        <v>75</v>
-      </c>
-      <c r="D24" s="113">
+      <c r="C24" s="112">
+        <v>75</v>
+      </c>
+      <c r="D24" s="112">
         <v>312.5</v>
       </c>
-      <c r="E24" s="113">
+      <c r="E24" s="112">
         <v>312.5</v>
       </c>
-      <c r="F24" s="119"/>
-      <c r="G24" s="113">
-        <v>75</v>
-      </c>
-      <c r="H24" s="113">
+      <c r="F24" s="112">
+        <f>4.5*12.5</f>
+        <v>56.25</v>
+      </c>
+      <c r="G24" s="112">
+        <v>75</v>
+      </c>
+      <c r="H24" s="112">
         <v>25</v>
       </c>
-      <c r="I24" s="113">
+      <c r="I24" s="112">
         <v>112.5</v>
       </c>
-      <c r="J24" s="119"/>
-      <c r="K24" s="119"/>
-      <c r="L24" s="113">
+      <c r="J24" s="112">
+        <v>25</v>
+      </c>
+      <c r="K24" s="112">
+        <v>62.5</v>
+      </c>
+      <c r="L24" s="112">
         <v>162.5</v>
       </c>
       <c r="M24" s="13">
         <f t="shared" si="0"/>
-        <v>1075</v>
+        <v>1218.75</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -5594,7 +5619,7 @@
       </c>
       <c r="P29" s="12">
         <f>SUM(M20:M29)</f>
-        <v>6725</v>
+        <v>6868.75</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -5615,7 +5640,7 @@
       </c>
       <c r="F31" s="12">
         <f t="shared" ref="F31:M31" si="1">SUM(F3:F29)</f>
-        <v>3102.5</v>
+        <v>3158.75</v>
       </c>
       <c r="G31" s="12">
         <f t="shared" si="1"/>
@@ -5631,11 +5656,11 @@
       </c>
       <c r="J31" s="12">
         <f t="shared" si="1"/>
-        <v>1750</v>
+        <v>1775</v>
       </c>
       <c r="K31" s="12">
         <f t="shared" si="1"/>
-        <v>2562.5</v>
+        <v>2625</v>
       </c>
       <c r="L31" s="12">
         <f t="shared" si="1"/>
@@ -5643,7 +5668,7 @@
       </c>
       <c r="M31" s="107">
         <f t="shared" si="1"/>
-        <v>23721.25</v>
+        <v>23865</v>
       </c>
     </row>
     <row r="37" spans="3:13">
@@ -5651,7 +5676,7 @@
         <f>SUM(C14:L18)</f>
         <v>4799.75</v>
       </c>
-      <c r="I37" s="110">
+      <c r="I37" s="109">
         <f>SUM('Buisness Projection'!U6:U20)-SUM('Buisness Projection'!T6:T20)</f>
         <v>2276.25</v>
       </c>
@@ -5661,11 +5686,11 @@
       </c>
     </row>
     <row r="38" spans="3:13">
-      <c r="C38" s="112">
+      <c r="C38" s="111">
         <f>((C37/12.5)/10)/5</f>
         <v>7.6796000000000006</v>
       </c>
-      <c r="M38" s="110">
+      <c r="M38" s="109">
         <f>SUM('Buisness Projection'!T16:T20)</f>
         <v>3750</v>
       </c>
@@ -5674,6 +5699,12 @@
       <c r="M39" s="12">
         <f>M37-M38</f>
         <v>1049.75</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13">
+      <c r="D41" s="12">
+        <f>SUM(C3:L24)/12.5</f>
+        <v>1909.2</v>
       </c>
     </row>
   </sheetData>
